--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
@@ -17,11 +17,35 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,10 +76,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -76,89 +104,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -167,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>08cfd988-9818-494c-950a-f165b6bd547f</t>
+          <t>2028e3b1-67af-4eff-8303-953184898716</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -236,65 +264,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="29.700000000000003"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -303,11 +331,13 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>593363f1-35fe-4120-8179-18471b736216</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+          <t>15ec15cc-4faa-4b8b-9578-a073930d4134</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="inlineStr">
@@ -337,11 +367,13 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>1eb55aa8-b8cd-4819-b98f-964763599c88</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
+          <t>fb77f1e1-9b6f-433c-8285-a59b6fe6af5d</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="inlineStr">
@@ -371,11 +403,13 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>1e1208f9-3eb9-460b-ab01-918857382b83</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
+          <t>14b178ff-c57f-4e2a-a6e1-451595ff931d</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0" t="inlineStr">
@@ -405,11 +439,13 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>af6796ec-6369-4730-ba0f-6b40d7663fb2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>6</v>
+          <t>36a5cdec-e7a5-4bdf-abc3-caac4077a973</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0" t="inlineStr">
@@ -439,11 +475,13 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>31c99715-affc-4055-8d35-27a303cfbf24</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>7</v>
+          <t>32a1bc85-a9c9-4496-9369-6caf10cdbd52</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0" t="inlineStr">
@@ -473,11 +511,13 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>edcd203e-fd1f-4cc4-8b9f-3ede8b9e4ed6</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>8</v>
+          <t>270372c7-0da8-4c6f-9c61-3a0e1e975db9</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="0" t="inlineStr">
@@ -507,11 +547,13 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>6f56c624-71b5-41bd-a7fd-bfb4d7da7afd</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>9</v>
+          <t>25f1b64f-efb7-49ac-9821-07c737be9ecd</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0" t="inlineStr">
@@ -541,11 +583,13 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>f2485511-c548-4b2b-961e-710fadd0a886</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
+          <t>40d22a1d-bd3e-4ac6-9973-2e7307740805</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="inlineStr">
@@ -575,11 +619,13 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>5e7341f8-5bd5-4b83-bb60-caca175f0f29</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>11</v>
+          <t>7186b679-4246-4510-a3d5-e193741b81b8</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="inlineStr">
@@ -609,11 +655,13 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>93c58ecd-6561-42df-a4fc-0200bf5fe411</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>12</v>
+          <t>fc4d2e6b-a7ab-4e3d-a1c6-cb5685d8a612</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="inlineStr">
@@ -643,11 +691,13 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>6d53123c-4d1d-43b3-b5c4-fc832c6231d4</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>13</v>
+          <t>23aea2f6-1dda-4794-a72f-a42891f71d2d</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0" t="inlineStr">
@@ -677,11 +727,13 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>e5a64cea-ad65-4aad-9d69-480714199d5c</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>14</v>
+          <t>9223ed8c-0405-468c-984e-c389198ea2fa</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0" t="inlineStr">
@@ -711,11 +763,13 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>c0b1f286-3e80-4d46-831f-4d1ddcec782e</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>16</v>
+          <t>c792f854-a9d9-447d-b8c9-0a420d46f6f6</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0" t="inlineStr">
@@ -762,59 +816,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -823,7 +877,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ee81298a-798e-41fd-9fa1-36477c737124</t>
+          <t>9c1b9f18-75c2-4c65-bc40-a6b36818fdd9</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -871,47 +925,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="20.900000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="20.900000000000002"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="24.200000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="31.349999999999998"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="36.3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>DPMMETRICDATATYPE</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>DPMFLOWTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>DPMBALANCETYPE</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>DPMDOMAINREFERENCE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DPMHIERARCHYREFERENCE</t>
         </is>
@@ -920,11 +974,13 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>8b9468b4-9c8f-4bca-ac2e-ff6daff6e0f1</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+          <t>85d1d9a4-20ed-4876-932b-a60ceaccfa60</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
@@ -939,11 +995,13 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>3fb5517a-6390-4571-932f-259704bf0f51</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
+          <t>8aeec481-c019-442b-9d81-2eadff4ca0c0</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
@@ -966,11 +1024,13 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>373f230f-c731-441c-ab09-ac787ae84744</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
+          <t>3f4a87d3-e7f6-444a-ae8c-e33ac4a2131b</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
@@ -985,11 +1045,13 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>6a2b23ba-2ac6-4ac4-8bac-b7beb474f505</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>6</v>
+          <t>e134fe14-bc71-4d69-b5d5-c3075932438b</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
@@ -1004,11 +1066,13 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2bdd08b5-0e85-4641-915c-516294dd201b</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>7</v>
+          <t>6a7105c0-3fde-40f8-8410-fc6ddcbe3a9a</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
@@ -1023,11 +1087,13 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>f7be8b01-2920-4287-a13d-a247a6615200</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>8</v>
+          <t>3669ce2c-311b-4b2d-8a4d-856549cc2a45</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
@@ -1042,11 +1108,13 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>32426c0c-1947-450b-8e6c-f7ca8bfe6f8b</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>9</v>
+          <t>cc7e294b-240f-4879-8c10-7e647da6fc5d</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
@@ -1061,11 +1129,13 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>06d2c59f-1e99-4fef-b461-24f991137389</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
+          <t>331ee70d-ab2b-4b73-93aa-a2caf8db48e9</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
@@ -1080,11 +1150,13 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>85981b00-c6a5-40d3-9b67-0b4ef45c5175</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>11</v>
+          <t>4ed1ee36-414d-4366-a5d7-a0473a941c62</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
@@ -1099,11 +1171,13 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>fe51df65-c9dc-4d2f-b41d-f8d34a8c00c3</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>12</v>
+          <t>e75756ce-2000-4dab-8d98-1ff590680686</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
@@ -1118,11 +1192,13 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>41f2debf-845b-4033-9454-aae68dd2d68b</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>13</v>
+          <t>3afa5036-c088-4940-bd60-c572debc0e33</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
@@ -1145,11 +1221,13 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>ade23943-7788-41a0-992a-a5932118df7d</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>14</v>
+          <t>b3ac8e10-33cf-4866-9fdf-2bd73fa074d5</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
@@ -1172,11 +1250,13 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>c4ec97b2-c68e-4945-a8e7-791c8108746e</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>16</v>
+          <t>72845a27-e7dd-4912-9a1e-74db0dd771a6</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
@@ -7,6 +7,9 @@
     <sheet sheetId="2" name="Codes" r:id="rId5"/>
     <sheet sheetId="3" name="Extensions" r:id="rId6"/>
     <sheet sheetId="4" name="Members_dpmMetric" r:id="rId7"/>
+    <sheet sheetId="5" name="Members_MET1" r:id="rId8"/>
+    <sheet sheetId="6" name="Members_MET10" r:id="rId9"/>
+    <sheet sheetId="7" name="Members_METHIER" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -17,11 +20,29 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -76,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -84,6 +105,9 @@
     <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -104,7 +128,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -195,7 +219,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2028e3b1-67af-4eff-8303-953184898716</t>
+          <t>11f1bd60-89b9-44cf-8b34-e8d0b1255463</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -264,13 +288,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="29.700000000000003"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
@@ -331,7 +355,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>15ec15cc-4faa-4b8b-9578-a073930d4134</t>
+          <t>05956cfd-731e-4474-b942-c94bcbbe9c77</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -347,13 +371,13 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>MET member (fi, label)</t>
+          <t>Metric member (fi, label)</t>
         </is>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>MET member (fi, description)</t>
+          <t>Metric member (fi, description)</t>
         </is>
       </c>
       <c r="H2" s="0"/>
@@ -367,7 +391,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>fb77f1e1-9b6f-433c-8285-a59b6fe6af5d</t>
+          <t>752bac53-ce06-4408-bb1c-87edcf52ef7a</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -403,7 +427,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>14b178ff-c57f-4e2a-a6e1-451595ff931d</t>
+          <t>73f7fa6c-e39e-42b4-a025-eafaa161d464</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -439,7 +463,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>36a5cdec-e7a5-4bdf-abc3-caac4077a973</t>
+          <t>5c84f51c-8abe-45a4-9864-0b1d1f4bc491</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -475,7 +499,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>32a1bc85-a9c9-4496-9369-6caf10cdbd52</t>
+          <t>378779fa-72b4-433f-a160-8d332bdc07ea</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -511,7 +535,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>270372c7-0da8-4c6f-9c61-3a0e1e975db9</t>
+          <t>23e382a7-7d6c-45fa-ad68-b3e2703aeece</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -547,7 +571,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>25f1b64f-efb7-49ac-9821-07c737be9ecd</t>
+          <t>ed6269ac-ea73-4cbf-8642-e0051f265c82</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -583,7 +607,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>40d22a1d-bd3e-4ac6-9973-2e7307740805</t>
+          <t>fdd10203-2898-4648-8ba1-26e48801ce6e</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -619,7 +643,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>7186b679-4246-4510-a3d5-e193741b81b8</t>
+          <t>2699cab9-3306-41cf-a308-4a7efec3b0bd</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -655,7 +679,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>fc4d2e6b-a7ab-4e3d-a1c6-cb5685d8a612</t>
+          <t>55f1cd18-3ae6-4d32-97cc-84551267a5dc</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -691,7 +715,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>23aea2f6-1dda-4794-a72f-a42891f71d2d</t>
+          <t>6ed06516-3401-4baf-9107-63231453ceee</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -727,7 +751,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>9223ed8c-0405-468c-984e-c389198ea2fa</t>
+          <t>92419e4f-e46e-45a7-aeda-f73b60e0ce27</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -763,7 +787,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>c792f854-a9d9-447d-b8c9-0a420d46f6f6</t>
+          <t>bde945dd-690c-44d1-8108-212a7c3b7351</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -810,13 +834,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -877,7 +901,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>9c1b9f18-75c2-4c65-bc40-a6b36818fdd9</t>
+          <t>c6670a7d-f6b4-4a0c-b3a2-96fedbe4e536</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -902,6 +926,123 @@
       <c r="I2" s="0" t="inlineStr">
         <is>
           <t>Members_dpmMetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>4dbfd70d-c501-4d10-a272-0bd083a5ccf9</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>MET1</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>definitionHierarchy</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Metric hierarchy 1</t>
+        </is>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Members_MET1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>530659a0-5a6d-4403-8cdc-0ee7d39ac6c1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>MET10</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>definitionHierarchy</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Metric hierarchy 10</t>
+        </is>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>Members_MET10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>6e42caec-a3ec-4e60-bb92-068a79691950</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>METHIER</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>definitionHierarchy</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Metric hierarchy (fi, label)</t>
+        </is>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>Members_METHIER</t>
         </is>
       </c>
     </row>
@@ -974,7 +1115,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>85d1d9a4-20ed-4876-932b-a60ceaccfa60</t>
+          <t>f25b08e5-c570-405d-997c-9f9942e24144</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -995,7 +1136,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>8aeec481-c019-442b-9d81-2eadff4ca0c0</t>
+          <t>66200974-5632-4ba6-af9b-dd46f479ac2f</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1024,7 +1165,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>3f4a87d3-e7f6-444a-ae8c-e33ac4a2131b</t>
+          <t>a27bec55-e8e2-462b-a6db-b958ca7d9ebb</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1045,7 +1186,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>e134fe14-bc71-4d69-b5d5-c3075932438b</t>
+          <t>cb26cb9a-7eb0-4e1a-ba40-d9135dab3e88</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1066,7 +1207,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>6a7105c0-3fde-40f8-8410-fc6ddcbe3a9a</t>
+          <t>218dcf26-36fd-4b3d-b182-e45d5329ee61</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1087,7 +1228,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>3669ce2c-311b-4b2d-8a4d-856549cc2a45</t>
+          <t>e25e160c-a429-4b26-901b-04ad69e6d295</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -1108,7 +1249,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>cc7e294b-240f-4879-8c10-7e647da6fc5d</t>
+          <t>b6c7fdb4-d8cc-4960-a024-a65a8060c9ec</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -1129,7 +1270,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>331ee70d-ab2b-4b73-93aa-a2caf8db48e9</t>
+          <t>d0a1a6e9-07ff-459a-8f44-69b83ab61fed</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -1150,7 +1291,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>4ed1ee36-414d-4366-a5d7-a0473a941c62</t>
+          <t>5c43f681-1aab-4476-ba32-5dd8b7e35e97</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -1171,7 +1312,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>e75756ce-2000-4dab-8d98-1ff590680686</t>
+          <t>028f8fb7-c188-4d97-90a4-b72ae676e981</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -1192,7 +1333,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>3afa5036-c088-4940-bd60-c572debc0e33</t>
+          <t>44b1cc47-c657-484a-9ad9-ebfb7481ae1b</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -1221,7 +1362,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>b3ac8e10-33cf-4866-9fdf-2bd73fa074d5</t>
+          <t>07db6a9f-3e49-4be6-a6cb-574903b22c46</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -1250,7 +1391,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>72845a27-e7dd-4912-9a1e-74db0dd771a6</t>
+          <t>3d64a861-18ce-49c2-bcd7-31535a148476</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -1267,6 +1408,719 @@
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="27.500000000000004"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>RELATION</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>PREFLABEL_FI</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>PREFLABEL_EN</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>STARTDATE</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>ENDDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>24c9dee0-6dd2-4fae-9383-5041dad28bc0</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>MET member (String)</t>
+        </is>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>87ac932a-0680-432a-954e-fed529b32a0a</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Decimal)</t>
+        </is>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>0e761975-ab7b-435d-8e82-150f8c46ace9</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Lei)</t>
+        </is>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2f9933ce-9129-48cc-bf9e-9ea1aa4f7853</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Isin)</t>
+        </is>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>b9158a32-86a2-4aac-a551-7bdda07e8c2c</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Enumeration: EDA)</t>
+        </is>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>b0bd0b2a-0ab7-4b8c-8dbe-5ca052bdb6a8</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Date)</t>
+        </is>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>32caabe1-aacb-4942-93e3-ab721b0efefc</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Boolean)</t>
+        </is>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>85916488-ade3-431d-9459-b351589f7207</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Integer)</t>
+        </is>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>1a9a80d0-5c92-48fe-9c27-e0367ffdcc88</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Monetary)</t>
+        </is>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>204a464a-8598-4af0-b78f-e80c5a436848</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Percentage)</t>
+        </is>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>RELATION</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>PREFLABEL_FI</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>PREFLABEL_EN</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>STARTDATE</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>ENDDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>c2ef1f5e-f7ae-4cee-b466-a78c79609bb4</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Boolean)</t>
+        </is>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>3b6cd964-f9ca-4910-a737-382a3dbbf892</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Enumeration: EDA)</t>
+        </is>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>d0535405-e2e6-424e-b258-1b5fc6485ccc</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Date)</t>
+        </is>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>afed1076-c130-45f8-a8e2-a6d8eb6bd278</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>MET member (String)</t>
+        </is>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>e3a31f8a-7601-4671-8976-4228cb4f0cfb</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>MET member (String, Instant, Credit)</t>
+        </is>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>f875f2d4-4030-4ca0-9e05-662cedf35414</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>MET member (String, Duration, Debit)</t>
+        </is>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cb055624-a97a-496e-a55f-af7385b5309a</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Monetary)</t>
+        </is>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>eab7f491-dc42-47bf-9ce9-80af1b6a9882</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Lei)</t>
+        </is>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>3d6ab51e-a464-4fe5-9305-225d4efef284</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Percentage)</t>
+        </is>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>e865052b-41b6-4115-b4c2-6c7f2964dd4b</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Isin)</t>
+        </is>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>54c9b6f3-a872-4257-853b-b375c7180200</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Decimal)</t>
+        </is>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bea9c17e-2636-472c-bf67-e359e6aa459b</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>MET member (Integer)</t>
+        </is>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>RELATION</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>PREFLABEL_FI</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>PREFLABEL_EN</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>STARTDATE</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>ENDDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>8f35fc06-38b4-4af5-a0dd-7aed92ee3de1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Metric member (fi, label)</t>
+        </is>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/metrics-2018-1.xlsx
@@ -128,7 +128,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -219,7 +219,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>11f1bd60-89b9-44cf-8b34-e8d0b1255463</t>
+          <t>844f0784-55df-4ec8-89a9-6e7e57740756</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -355,7 +355,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>05956cfd-731e-4474-b942-c94bcbbe9c77</t>
+          <t>4cba4cb2-cfb7-4816-b1a0-03a2b5fe45ae</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>752bac53-ce06-4408-bb1c-87edcf52ef7a</t>
+          <t>989c0e39-a789-4b43-9936-32b9d08c4005</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>73f7fa6c-e39e-42b4-a025-eafaa161d464</t>
+          <t>cc4ec85f-8cae-43fe-83d6-4100c44fd391</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -463,7 +463,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>5c84f51c-8abe-45a4-9864-0b1d1f4bc491</t>
+          <t>8c71fa02-4d81-4ab5-8775-0bcd0d3e49df</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>378779fa-72b4-433f-a160-8d332bdc07ea</t>
+          <t>dc134a88-0b37-4868-8a53-d6997c202e87</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>23e382a7-7d6c-45fa-ad68-b3e2703aeece</t>
+          <t>f79c003a-8f26-442c-9dbb-32225105d3e0</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>ed6269ac-ea73-4cbf-8642-e0051f265c82</t>
+          <t>009767b3-84f4-44f7-bbb7-1f923a664578</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>fdd10203-2898-4648-8ba1-26e48801ce6e</t>
+          <t>df21ea75-92a3-4527-a852-c089cb2c27c5</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2699cab9-3306-41cf-a308-4a7efec3b0bd</t>
+          <t>eceb6fbd-9611-4d9d-bbea-29aa20fbdee7</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>55f1cd18-3ae6-4d32-97cc-84551267a5dc</t>
+          <t>3b1bc1fb-d7c4-4308-aff5-003ed7618067</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -715,7 +715,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>6ed06516-3401-4baf-9107-63231453ceee</t>
+          <t>d95a0b2e-d820-42d5-839f-37b578bd09ef</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>92419e4f-e46e-45a7-aeda-f73b60e0ce27</t>
+          <t>342d6d31-680c-4e3d-9524-eda7a0c60fd7</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>bde945dd-690c-44d1-8108-212a7c3b7351</t>
+          <t>f7977f55-9976-4624-91a1-2ff94f8588e1</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -840,7 +840,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -901,7 +901,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>c6670a7d-f6b4-4a0c-b3a2-96fedbe4e536</t>
+          <t>449ab813-92b3-41ac-bfa1-d296e4ae5e2b</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>4dbfd70d-c501-4d10-a272-0bd083a5ccf9</t>
+          <t>dffedc48-6365-41f9-9bd7-94dee18fd9a3</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -971,7 +971,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>530659a0-5a6d-4403-8cdc-0ee7d39ac6c1</t>
+          <t>5ccf0133-5747-426c-b411-351eaad1925b</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>6e42caec-a3ec-4e60-bb92-068a79691950</t>
+          <t>7fcb4a8e-36e1-4258-b6c5-3b853800fd74</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1066,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="19.799999999999997"/>
@@ -1115,7 +1115,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>f25b08e5-c570-405d-997c-9f9942e24144</t>
+          <t>62eb03f0-9cf7-46b4-a376-0d0a3b5f01ad</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1136,7 +1136,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>66200974-5632-4ba6-af9b-dd46f479ac2f</t>
+          <t>9548944e-f0ff-4777-bfe3-e7a99a0e2e64</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>a27bec55-e8e2-462b-a6db-b958ca7d9ebb</t>
+          <t>279f870d-171a-481f-b00b-c154418a2c66</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>cb26cb9a-7eb0-4e1a-ba40-d9135dab3e88</t>
+          <t>965e694c-c72d-42d3-9d47-2256ecd3a686</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1207,7 +1207,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>218dcf26-36fd-4b3d-b182-e45d5329ee61</t>
+          <t>c3f9eedd-0df7-45bb-8db0-0c72ff789701</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>e25e160c-a429-4b26-901b-04ad69e6d295</t>
+          <t>07e485ec-5a86-4550-8b47-a8ffa7acc2cd</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>b6c7fdb4-d8cc-4960-a024-a65a8060c9ec</t>
+          <t>6a42561f-e58f-4d3f-acd4-4d9dbbf8de56</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>d0a1a6e9-07ff-459a-8f44-69b83ab61fed</t>
+          <t>c547012b-4d94-4594-aa07-862de6279f8d</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>5c43f681-1aab-4476-ba32-5dd8b7e35e97</t>
+          <t>bc2d96b4-83e4-4eb1-b5a7-cfeb1085cbb3</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>028f8fb7-c188-4d97-90a4-b72ae676e981</t>
+          <t>42b0b214-737c-4c4c-bc24-7a0e0eccd84d</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>44b1cc47-c657-484a-9ad9-ebfb7481ae1b</t>
+          <t>5bc0a1d5-f193-4160-8416-ce6e56967610</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -1362,7 +1362,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>07db6a9f-3e49-4be6-a6cb-574903b22c46</t>
+          <t>ce9a186e-c428-4197-ab2a-e4153574a200</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -1391,7 +1391,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>3d64a861-18ce-49c2-bcd7-31535a148476</t>
+          <t>ba6683c1-09b1-40e7-a77c-fbd083613159</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -1429,10 +1429,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="27.500000000000004"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="31.900000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -1478,7 +1478,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>24c9dee0-6dd2-4fae-9383-5041dad28bc0</t>
+          <t>979a0a40-a9e7-44f2-aba8-d9452bec0e02</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1489,7 +1489,7 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>MET member (String)</t>
+          <t>MET hierarchy node (String)</t>
         </is>
       </c>
       <c r="E2" s="0"/>
@@ -1499,7 +1499,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>87ac932a-0680-432a-954e-fed529b32a0a</t>
+          <t>21011d2e-bae9-49ae-8bd6-64a6cd3c3e08</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1510,7 +1510,7 @@
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>MET member (Decimal)</t>
+          <t>MET hierarchy node (Decimal)</t>
         </is>
       </c>
       <c r="E3" s="0"/>
@@ -1520,7 +1520,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>0e761975-ab7b-435d-8e82-150f8c46ace9</t>
+          <t>f2f6e9c6-ffbc-4794-b4e8-bcc4bf24a611</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1531,7 +1531,7 @@
       <c r="C4" s="0"/>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>MET member (Lei)</t>
+          <t>MET hierarchy node (Lei)</t>
         </is>
       </c>
       <c r="E4" s="0"/>
@@ -1541,7 +1541,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2f9933ce-9129-48cc-bf9e-9ea1aa4f7853</t>
+          <t>6a0e2376-761e-4877-9ea4-bbea36b9fe76</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1552,7 +1552,7 @@
       <c r="C5" s="0"/>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>MET member (Isin)</t>
+          <t>MET hierarchy node (Isin)</t>
         </is>
       </c>
       <c r="E5" s="0"/>
@@ -1562,7 +1562,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>b9158a32-86a2-4aac-a551-7bdda07e8c2c</t>
+          <t>5fd3083e-a3c5-458c-9573-cf81200f0e06</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1573,7 +1573,7 @@
       <c r="C6" s="0"/>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>MET member (Enumeration: EDA)</t>
+          <t>MET hierarchy node (Enumeration: EDA)</t>
         </is>
       </c>
       <c r="E6" s="0"/>
@@ -1583,7 +1583,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>b0bd0b2a-0ab7-4b8c-8dbe-5ca052bdb6a8</t>
+          <t>987961bb-5c14-45f9-b5c5-2ba6c90d120a</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -1594,7 +1594,7 @@
       <c r="C7" s="0"/>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>MET member (Date)</t>
+          <t>MET hierarchy node (Date)</t>
         </is>
       </c>
       <c r="E7" s="0"/>
@@ -1604,7 +1604,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>32caabe1-aacb-4942-93e3-ab721b0efefc</t>
+          <t>93b3d517-643b-4e69-b02c-c5bfc44d4e39</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -1615,7 +1615,7 @@
       <c r="C8" s="0"/>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>MET member (Boolean)</t>
+          <t>MET hierarchy node (Boolean)</t>
         </is>
       </c>
       <c r="E8" s="0"/>
@@ -1625,7 +1625,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>85916488-ade3-431d-9459-b351589f7207</t>
+          <t>b7db17e2-71f5-43bc-a76f-3ad399b78918</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -1636,7 +1636,7 @@
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>MET member (Integer)</t>
+          <t>MET hierarchy node (Integer)</t>
         </is>
       </c>
       <c r="E9" s="0"/>
@@ -1646,7 +1646,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>1a9a80d0-5c92-48fe-9c27-e0367ffdcc88</t>
+          <t>f90aa3fe-6983-41e8-9d23-da22db016c93</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>MET member (Monetary)</t>
+          <t>MET hierarchy node (Monetary)</t>
         </is>
       </c>
       <c r="E10" s="0"/>
@@ -1667,7 +1667,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>204a464a-8598-4af0-b78f-e80c5a436848</t>
+          <t>61842e4a-b433-4670-89cc-f3a9dd16201b</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -1678,7 +1678,7 @@
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>MET member (Percentage)</t>
+          <t>MET hierarchy node (Percentage)</t>
         </is>
       </c>
       <c r="E11" s="0"/>
@@ -1705,10 +1705,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="34.1"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -1754,7 +1754,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>c2ef1f5e-f7ae-4cee-b466-a78c79609bb4</t>
+          <t>dc82f029-52f5-44c6-91d5-c693759bb51a</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>MET member (Boolean)</t>
+          <t>MET hierarchy node (Boolean)</t>
         </is>
       </c>
       <c r="E2" s="0"/>
@@ -1775,7 +1775,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>3b6cd964-f9ca-4910-a737-382a3dbbf892</t>
+          <t>c69027da-a835-4a06-8766-e832388fc804</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1786,7 +1786,7 @@
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>MET member (Enumeration: EDA)</t>
+          <t>MET hierarchy node (Enumeration: EDA)</t>
         </is>
       </c>
       <c r="E3" s="0"/>
@@ -1796,7 +1796,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>d0535405-e2e6-424e-b258-1b5fc6485ccc</t>
+          <t>2b45e321-8151-45ec-8678-212956f06224</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1807,7 +1807,7 @@
       <c r="C4" s="0"/>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>MET member (Date)</t>
+          <t>MET hierarchy node (Date)</t>
         </is>
       </c>
       <c r="E4" s="0"/>
@@ -1817,7 +1817,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>afed1076-c130-45f8-a8e2-a6d8eb6bd278</t>
+          <t>6eab6e5a-2b4c-4727-b261-1dfa2f80e737</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>code:16</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>MET member (String)</t>
+          <t>MET hierarchy node (String)</t>
         </is>
       </c>
       <c r="E5" s="0"/>
@@ -1842,7 +1842,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>e3a31f8a-7601-4671-8976-4228cb4f0cfb</t>
+          <t>15ea85ed-1c27-4ffe-94ff-1d1ed67c6ba4</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>code:16</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>MET member (String, Instant, Credit)</t>
+          <t>MET hierarchy node (String, Instant, Credit)</t>
         </is>
       </c>
       <c r="E6" s="0"/>
@@ -1867,7 +1867,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>f875f2d4-4030-4ca0-9e05-662cedf35414</t>
+          <t>2b398f57-ab7d-4ee3-88c0-aa90c7abe8ca</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>code:13</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>MET member (String, Duration, Debit)</t>
+          <t>MET hierarchy node (String, Duration, Debit)</t>
         </is>
       </c>
       <c r="E7" s="0"/>
@@ -1892,7 +1892,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>cb055624-a97a-496e-a55f-af7385b5309a</t>
+          <t>c222144f-4508-40d9-badb-e6157c0761f3</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>code:16</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>MET member (Monetary)</t>
+          <t>MET hierarchy node (Monetary)</t>
         </is>
       </c>
       <c r="E8" s="0"/>
@@ -1917,7 +1917,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>eab7f491-dc42-47bf-9ce9-80af1b6a9882</t>
+          <t>740a11f6-10e1-426c-ad01-72147a31e72b</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>code:7</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>MET member (Lei)</t>
+          <t>MET hierarchy node (Lei)</t>
         </is>
       </c>
       <c r="E9" s="0"/>
@@ -1942,7 +1942,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>3d6ab51e-a464-4fe5-9305-225d4efef284</t>
+          <t>71d45c1a-82e3-4106-818e-6116ffd5f97f</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>code:7</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>MET member (Percentage)</t>
+          <t>MET hierarchy node (Percentage)</t>
         </is>
       </c>
       <c r="E10" s="0"/>
@@ -1967,7 +1967,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>e865052b-41b6-4115-b4c2-6c7f2964dd4b</t>
+          <t>4c8bb3d4-78d7-4c32-8ae3-642c6daa9a5f</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>code:7</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>MET member (Isin)</t>
+          <t>MET hierarchy node (Isin)</t>
         </is>
       </c>
       <c r="E11" s="0"/>
@@ -1992,7 +1992,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>54c9b6f3-a872-4257-853b-b375c7180200</t>
+          <t>316ea407-87e0-4219-8cc3-d8f822882a2f</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>code:7</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>MET member (Decimal)</t>
+          <t>MET hierarchy node (Decimal)</t>
         </is>
       </c>
       <c r="E12" s="0"/>
@@ -2017,7 +2017,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>bea9c17e-2636-472c-bf67-e359e6aa459b</t>
+          <t>6d27392f-1e0f-4587-ae05-521a8d235b4f</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -2028,7 +2028,7 @@
       <c r="C13" s="0"/>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>MET member (Integer)</t>
+          <t>MET hierarchy node (Integer)</t>
         </is>
       </c>
       <c r="E13" s="0"/>
@@ -2055,10 +2055,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="22.0"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -2104,7 +2104,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>8f35fc06-38b4-4af5-a0dd-7aed92ee3de1</t>
+          <t>9cc767a2-66d4-4ab5-be30-523b43155bc4</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -2115,7 +2115,7 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Metric member (fi, label)</t>
+          <t>Metric hierarchy node (fi, label)</t>
         </is>
       </c>
       <c r="E2" s="0"/>
